--- a/코스피200_종목_전체.xlsx
+++ b/코스피200_종목_전체.xlsx
@@ -498,40 +498,40 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>61300</t>
+          <t>60250</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>800</t>
+          <t>1050</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>상승</t>
+          <t>하락</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.32</v>
+        <v>-1.71</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>22701571</t>
+          <t>15407609</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>1382334</t>
+          <t>931126</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>3628738</t>
+          <t>3566582</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2025-06-25 16:42:56</t>
+          <t>2025-06-26 14:26:59</t>
         </is>
       </c>
     </row>
@@ -548,12 +548,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>286000</t>
+          <t>293000</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7500</t>
+          <t>7000</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -562,26 +562,26 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.69</v>
+        <v>2.45</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>5162901</t>
+          <t>4637647</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>1481747</t>
+          <t>1362243</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2082087</t>
+          <t>2133047</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2025-06-25 16:42:56</t>
+          <t>2025-06-26 14:26:59</t>
         </is>
       </c>
     </row>
@@ -598,40 +598,40 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1004000</t>
+          <t>1001500</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2500</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>보합</t>
+          <t>하락</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>57537</t>
+          <t>40821</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>57650</t>
+          <t>40880</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>714587</t>
+          <t>712808</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2025-06-25 16:42:56</t>
+          <t>2025-06-26 14:26:59</t>
         </is>
       </c>
     </row>
@@ -648,12 +648,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>298000</t>
+          <t>296500</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>1500</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -662,43 +662,43 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>-0.83</v>
+        <v>-0.5</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>185031</t>
+          <t>113635</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>55083</t>
+          <t>33742</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>697320</t>
+          <t>693810</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>2025-06-25 16:42:56</t>
+          <t>2025-06-26 14:26:59</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>035420</t>
+          <t>005380</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NAVER</t>
+          <t>현대차</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>283500</t>
+          <t>210000</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -712,76 +712,76 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>-2.41</v>
+        <v>-3.23</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2862461</t>
+          <t>653989</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>806833</t>
+          <t>137639</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>449169</t>
+          <t>429991</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>2025-06-25 16:42:56</t>
+          <t>2025-06-26 14:26:59</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>005380</t>
+          <t>105560</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>현대차</t>
+          <t>KB금융</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>217000</t>
+          <t>109400</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>11000</t>
+          <t>100</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>상승</t>
+          <t>하락</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>5.34</v>
+        <v>-0.09</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1786093</t>
+          <t>613850</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>384402</t>
+          <t>67069</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>444324</t>
+          <t>417320</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>2025-06-25 16:42:56</t>
+          <t>2025-06-26 14:26:59</t>
         </is>
       </c>
     </row>
@@ -798,12 +798,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>65800</t>
+          <t>64800</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3100</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -812,48 +812,48 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>-4.5</v>
+        <v>-1.52</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>11308003</t>
+          <t>12208116</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>749541</t>
+          <t>793207</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>421489</t>
+          <t>415084</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>2025-06-25 16:42:56</t>
+          <t>2025-06-26 14:26:59</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>105560</t>
+          <t>035420</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>KB금융</t>
+          <t>NAVER</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>109500</t>
+          <t>261500</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2800</t>
+          <t>22000</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -862,26 +862,26 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>-2.49</v>
+        <v>-7.76</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1644148</t>
+          <t>3747999</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>180625</t>
+          <t>987288</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>417701</t>
+          <t>414313</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>2025-06-25 16:42:56</t>
+          <t>2025-06-26 14:26:59</t>
         </is>
       </c>
     </row>
@@ -898,40 +898,40 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>856000</t>
+          <t>871000</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>39000</t>
+          <t>15000</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>하락</t>
+          <t>상승</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>-4.36</v>
+        <v>1.75</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>309731</t>
+          <t>245027</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>268176</t>
+          <t>211471</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>404855</t>
+          <t>411950</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>2025-06-25 16:42:56</t>
+          <t>2025-06-26 14:26:59</t>
         </is>
       </c>
     </row>
@@ -948,40 +948,40 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>101100</t>
+          <t>99300</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>4200</t>
+          <t>1800</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>상승</t>
+          <t>하락</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>4.33</v>
+        <v>-1.78</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2778238</t>
+          <t>900938</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>280749</t>
+          <t>89911</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>402047</t>
+          <t>394889</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>2025-06-25 16:42:56</t>
+          <t>2025-06-26 14:26:59</t>
         </is>
       </c>
     </row>
@@ -998,12 +998,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>437000</t>
+          <t>422000</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>26500</t>
+          <t>15000</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1012,26 +1012,26 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>-5.72</v>
+        <v>-3.43</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>318755</t>
+          <t>290329</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>143668</t>
+          <t>122495</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>387939</t>
+          <t>374623</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>2025-06-25 16:42:56</t>
+          <t>2025-06-26 14:26:59</t>
         </is>
       </c>
     </row>
@@ -1048,12 +1048,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>160500</t>
+          <t>159700</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>700</t>
+          <t>800</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1062,43 +1062,43 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>-0.43</v>
+        <v>-0.5</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>380643</t>
+          <t>256041</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>61065</t>
+          <t>40938</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>356994</t>
+          <t>355214</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>2025-06-25 16:42:56</t>
+          <t>2025-06-26 14:26:59</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>035720</t>
+          <t>055550</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>카카오</t>
+          <t>신한지주</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>69400</t>
+          <t>59600</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1112,48 +1112,48 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>-1.42</v>
+        <v>-1.65</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>6399440</t>
+          <t>1405179</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>442645</t>
+          <t>84470</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>306586</t>
+          <t>295522</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>2025-06-25 16:42:56</t>
+          <t>2025-06-26 14:26:59</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>055550</t>
+          <t>035720</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>신한지주</t>
+          <t>카카오</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>60600</t>
+          <t>63100</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>6300</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1162,26 +1162,26 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>-0.66</v>
+        <v>-9.08</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>3108925</t>
+          <t>10846435</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>188312</t>
+          <t>691207</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>300480</t>
+          <t>278755</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>2025-06-25 16:42:56</t>
+          <t>2025-06-26 14:26:59</t>
         </is>
       </c>
     </row>
@@ -1198,40 +1198,40 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>165100</t>
+          <t>160300</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2600</t>
+          <t>4800</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>상승</t>
+          <t>하락</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.6</v>
+        <v>-2.91</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>714792</t>
+          <t>403325</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>117983</t>
+          <t>63925</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>280631</t>
+          <t>272472</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>2025-06-25 16:42:56</t>
+          <t>2025-06-26 14:26:59</t>
         </is>
       </c>
     </row>
@@ -1248,140 +1248,140 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>297500</t>
+          <t>294000</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>12500</t>
+          <t>3500</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>상승</t>
+          <t>하락</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>4.39</v>
+        <v>-1.18</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>397717</t>
+          <t>159651</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>117465</t>
+          <t>46878</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>273090</t>
+          <t>269878</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>2025-06-25 16:42:56</t>
+          <t>2025-06-26 14:26:59</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>032830</t>
+          <t>009540</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>삼성생명</t>
+          <t>HD한국조선해양</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>129000</t>
+          <t>361000</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>상승</t>
+          <t>하락</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.39</v>
+        <v>-0.82</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>289015</t>
+          <t>336537</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>37250</t>
+          <t>120726</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>258000</t>
+          <t>255491</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>2025-06-25 16:42:56</t>
+          <t>2025-06-26 14:26:59</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>009540</t>
+          <t>015760</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>HD한국조선해양</t>
+          <t>한국전력</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>364000</t>
+          <t>39750</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>28000</t>
+          <t>1900</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>하락</t>
+          <t>상승</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>-7.14</v>
+        <v>5.02</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>434574</t>
+          <t>17266025</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>162947</t>
+          <t>661812</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>257614</t>
+          <t>255181</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>2025-06-25 16:42:56</t>
+          <t>2025-06-26 14:26:59</t>
         </is>
       </c>
     </row>
@@ -1398,62 +1398,62 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>192200</t>
+          <t>189000</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>11200</t>
+          <t>3200</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>상승</t>
+          <t>하락</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>6.19</v>
+        <v>-1.66</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>956455</t>
+          <t>841395</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>184365</t>
+          <t>159971</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>254744</t>
+          <t>250502</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>2025-06-25 16:42:56</t>
+          <t>2025-06-26 14:26:59</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>042660</t>
+          <t>032830</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>한화오션</t>
+          <t>삼성생명</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>82500</t>
+          <t>124700</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>4900</t>
+          <t>4300</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1462,76 +1462,76 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>-5.61</v>
+        <v>-3.33</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>3391991</t>
+          <t>309561</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>286001</t>
+          <t>38673</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>252791</t>
+          <t>249400</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>2025-06-25 16:42:56</t>
+          <t>2025-06-26 14:26:59</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>015760</t>
+          <t>042660</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>한국전력</t>
+          <t>한화오션</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>37850</t>
+          <t>80300</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>3750</t>
+          <t>2200</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>상승</t>
+          <t>하락</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>11</v>
+        <v>-2.67</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>19546586</t>
+          <t>2523984</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>732741</t>
+          <t>202816</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>242983</t>
+          <t>246050</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>2025-06-25 16:42:56</t>
+          <t>2025-06-26 14:26:59</t>
         </is>
       </c>
     </row>
@@ -1553,25 +1553,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>900</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>상승</t>
+          <t>보합</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>1020020</t>
+          <t>532621</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>84438</t>
+          <t>44229</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1581,7 +1581,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>2025-06-25 16:42:56</t>
+          <t>2025-06-26 14:26:59</t>
         </is>
       </c>
     </row>
@@ -1598,12 +1598,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>22850</t>
+          <t>23000</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>150</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1612,26 +1612,26 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.22</v>
+        <v>0.66</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>1816170</t>
+          <t>2255011</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>41619</t>
+          <t>52217</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>234222</t>
+          <t>235759</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>2025-06-25 16:42:56</t>
+          <t>2025-06-26 14:26:59</t>
         </is>
       </c>
     </row>
@@ -1648,40 +1648,40 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>269500</t>
+          <t>267000</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>6500</t>
+          <t>2500</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>상승</t>
+          <t>하락</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.47</v>
+        <v>-0.93</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>383736</t>
+          <t>188878</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>102680</t>
+          <t>50497</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>218114</t>
+          <t>216091</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>2025-06-25 16:42:56</t>
+          <t>2025-06-26 14:26:59</t>
         </is>
       </c>
     </row>
@@ -1698,40 +1698,40 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>191800</t>
+          <t>195900</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>8200</t>
+          <t>4100</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>하락</t>
+          <t>상승</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>-4.1</v>
+        <v>2.14</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>1551571</t>
+          <t>1307411</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>299610</t>
+          <t>255279</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>209335</t>
+          <t>213810</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>2025-06-25 16:42:56</t>
+          <t>2025-06-26 14:26:59</t>
         </is>
       </c>
     </row>
@@ -1748,40 +1748,40 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>114300</t>
+          <t>113700</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>600</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>상승</t>
+          <t>하락</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.18</v>
+        <v>-0.52</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>325884</t>
+          <t>170656</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>37187</t>
+          <t>19375</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>205757</t>
+          <t>204676</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>2025-06-25 16:42:56</t>
+          <t>2025-06-26 14:26:59</t>
         </is>
       </c>
     </row>
@@ -1798,12 +1798,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>440500</t>
+          <t>438000</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>3500</t>
+          <t>2500</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1812,26 +1812,26 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>-0.79</v>
+        <v>-0.57</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>88585</t>
+          <t>46173</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>39193</t>
+          <t>20049</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>202679</t>
+          <t>201529</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>2025-06-25 16:42:56</t>
+          <t>2025-06-26 14:26:59</t>
         </is>
       </c>
     </row>
@@ -1848,112 +1848,112 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>497000</t>
+          <t>480500</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>15000</t>
+          <t>16500</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>상승</t>
+          <t>하락</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3.11</v>
+        <v>-3.32</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>241453</t>
+          <t>199499</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>120317</t>
+          <t>96311</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>179154</t>
+          <t>173206</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>2025-06-25 16:42:56</t>
+          <t>2025-06-26 14:26:59</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>323410</t>
+          <t>259960</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>카카오뱅크</t>
+          <t>크래프톤</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>36600</t>
+          <t>359000</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>하락</t>
+          <t>상승</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>-1.08</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2774761</t>
+          <t>73612</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>99787</t>
+          <t>26334</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>174578</t>
+          <t>170133</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>2025-06-25 16:42:56</t>
+          <t>2025-06-26 14:26:59</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>259960</t>
+          <t>316140</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>크래프톤</t>
+          <t>우리금융지주</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>357000</t>
+          <t>22350</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>4500</t>
+          <t>150</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1962,48 +1962,48 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>-1.24</v>
+        <v>-0.67</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>171881</t>
+          <t>1870827</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>60836</t>
+          <t>41759</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>169185</t>
+          <t>165969</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>2025-06-25 16:42:56</t>
+          <t>2025-06-26 14:26:59</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>316140</t>
+          <t>010130</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>우리금융지주</t>
+          <t>고려아연</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>22500</t>
+          <t>793000</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2012,76 +2012,76 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.35</v>
+        <v>0.38</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>3278835</t>
+          <t>12471</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>73595</t>
+          <t>9867</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>167083</t>
+          <t>164177</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>2025-06-25 16:42:56</t>
+          <t>2025-06-26 14:26:59</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>010130</t>
+          <t>051910</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>고려아연</t>
+          <t>LG화학</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>790000</t>
+          <t>216500</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>29000</t>
+          <t>4000</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>하락</t>
+          <t>상승</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>-3.54</v>
+        <v>1.88</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>25148</t>
+          <t>252005</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>20057</t>
+          <t>54142</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>163556</t>
+          <t>152832</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>2025-06-25 16:42:56</t>
+          <t>2025-06-26 14:26:59</t>
         </is>
       </c>
     </row>
@@ -2098,40 +2098,40 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>125300</t>
+          <t>124800</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>700</t>
+          <t>500</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>상승</t>
+          <t>하락</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.5600000000000001</v>
+        <v>-0.4</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>290737</t>
+          <t>262979</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>36429</t>
+          <t>32893</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>152944</t>
+          <t>152334</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>2025-06-25 16:42:56</t>
+          <t>2025-06-26 14:26:59</t>
         </is>
       </c>
     </row>
@@ -2148,12 +2148,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>101000</t>
+          <t>100300</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>800</t>
+          <t>700</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2162,76 +2162,76 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>-0.79</v>
+        <v>-0.6899999999999999</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>330462</t>
+          <t>209118</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>33395</t>
+          <t>20868</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>152545</t>
+          <t>151488</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>2025-06-25 16:42:56</t>
+          <t>2025-06-26 14:26:59</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>051910</t>
+          <t>323410</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>LG화학</t>
+          <t>카카오뱅크</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>212500</t>
+          <t>31600</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>1500</t>
+          <t>5000</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>상승</t>
+          <t>하락</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.71</v>
+        <v>-13.66</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>178210</t>
+          <t>2768554</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>37788</t>
+          <t>88802</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>150009</t>
+          <t>150729</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>2025-06-25 16:42:56</t>
+          <t>2025-06-26 14:26:59</t>
         </is>
       </c>
     </row>
@@ -2248,40 +2248,40 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>18790</t>
+          <t>18540</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>730</t>
+          <t>250</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>상승</t>
+          <t>하락</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>4.04</v>
+        <v>-1.33</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>1683146</t>
+          <t>1407630</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>31151</t>
+          <t>26211</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>149836</t>
+          <t>147843</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>2025-06-25 16:42:56</t>
+          <t>2025-06-26 14:26:59</t>
         </is>
       </c>
     </row>
@@ -2298,40 +2298,40 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>202500</t>
+          <t>202250</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>3300</t>
+          <t>250</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>상승</t>
+          <t>하락</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.66</v>
+        <v>-0.12</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>417497</t>
+          <t>316914</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>83548</t>
+          <t>63773</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>146818</t>
+          <t>146637</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>2025-06-25 16:42:56</t>
+          <t>2025-06-26 14:26:59</t>
         </is>
       </c>
     </row>
@@ -2348,12 +2348,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>16530</t>
+          <t>16250</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>530</t>
+          <t>280</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2362,26 +2362,26 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>-3.11</v>
+        <v>-1.69</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>7951547</t>
+          <t>5768622</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>133819</t>
+          <t>93663</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>145464</t>
+          <t>143000</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>2025-06-25 16:42:56</t>
+          <t>2025-06-26 14:26:59</t>
         </is>
       </c>
     </row>
@@ -2398,12 +2398,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>175400</t>
+          <t>174500</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1400</t>
+          <t>900</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2412,26 +2412,26 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>-0.79</v>
+        <v>-0.51</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>397964</t>
+          <t>364690</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>69532</t>
+          <t>63961</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>141347</t>
+          <t>140622</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>2025-06-25 16:42:56</t>
+          <t>2025-06-26 14:26:59</t>
         </is>
       </c>
     </row>
@@ -2448,12 +2448,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>180100</t>
+          <t>174900</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>13400</t>
+          <t>5200</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2462,76 +2462,76 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>-6.93</v>
+        <v>-2.89</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>774478</t>
+          <t>474483</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>139932</t>
+          <t>82303</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>139357</t>
+          <t>135334</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>2025-06-25 16:42:56</t>
+          <t>2025-06-26 14:26:59</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>006800</t>
+          <t>030200</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>미래에셋증권</t>
+          <t>KT</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>23450</t>
+          <t>52300</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>900</t>
+          <t>100</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>상승</t>
+          <t>하락</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>3.99</v>
+        <v>-0.19</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>7830793</t>
+          <t>188882</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>179792</t>
+          <t>9867</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>133739</t>
+          <t>131807</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>2025-06-25 16:42:56</t>
+          <t>2025-06-26 14:26:59</t>
         </is>
       </c>
     </row>
@@ -2548,12 +2548,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>84000</t>
+          <t>81600</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>900</t>
+          <t>2400</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2562,198 +2562,198 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>-1.06</v>
+        <v>-2.86</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>444346</t>
+          <t>335591</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>37473</t>
+          <t>27397</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>132091</t>
+          <t>128317</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>2025-06-25 16:42:56</t>
+          <t>2025-06-26 14:26:59</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>030200</t>
+          <t>352820</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>KT</t>
+          <t>하이브</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>52400</t>
+          <t>304500</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>6000</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>상승</t>
+          <t>하락</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.58</v>
+        <v>-1.93</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>227027</t>
+          <t>137022</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>11868</t>
+          <t>41930</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>132059</t>
+          <t>126831</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>2025-06-25 16:42:56</t>
+          <t>2025-06-26 14:26:59</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>352820</t>
+          <t>377300</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>하이브</t>
+          <t>카카오페이</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>310500</t>
+          <t>93800</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>하락</t>
+          <t>보합</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>-0.64</v>
+        <v>0</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>243590</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>75441</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>129330</t>
+          <t>126345</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>2025-06-25 16:42:56</t>
+          <t>2025-06-26 14:26:59</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>377300</t>
+          <t>006800</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>카카오페이</t>
+          <t>미래에셋증권</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>93800</t>
+          <t>21700</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>1800</t>
+          <t>1750</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>상승</t>
+          <t>하락</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.96</v>
+        <v>-7.46</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>12116328</t>
+          <t>6110721</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>1208755</t>
+          <t>131961</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>126345</t>
+          <t>123759</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>2025-06-25 16:42:56</t>
+          <t>2025-06-26 14:26:59</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>066570</t>
+          <t>017670</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>SK텔레콤</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>76100</t>
+          <t>56800</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>300</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2762,76 +2762,76 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>-0.13</v>
+        <v>-0.53</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>514310</t>
+          <t>590090</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>39081</t>
+          <t>33426</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>124536</t>
+          <t>122001</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>2025-06-25 16:42:56</t>
+          <t>2025-06-26 14:26:59</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>017670</t>
+          <t>066570</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>SK텔레콤</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>57100</t>
+          <t>74500</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>1600</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>상승</t>
+          <t>하락</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.53</v>
+        <v>-2.1</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>788270</t>
+          <t>311974</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>44923</t>
+          <t>23393</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>122645</t>
+          <t>121918</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>2025-06-25 16:42:56</t>
+          <t>2025-06-26 14:26:59</t>
         </is>
       </c>
     </row>
@@ -2848,12 +2848,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>527000</t>
+          <t>524500</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>27000</t>
+          <t>2500</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2862,26 +2862,26 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>-4.87</v>
+        <v>-0.47</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>296861</t>
+          <t>162351</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>157536</t>
+          <t>85581</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>115940</t>
+          <t>115390</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>2025-06-25 16:42:56</t>
+          <t>2025-06-26 14:26:59</t>
         </is>
       </c>
     </row>
@@ -2903,25 +2903,25 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>4200</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>하락</t>
+          <t>보합</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>-6.66</v>
+        <v>0</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2416203</t>
+          <t>1897558</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>144514</t>
+          <t>112575</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>2025-06-25 16:42:56</t>
+          <t>2025-06-26 14:26:59</t>
         </is>
       </c>
     </row>
@@ -2948,12 +2948,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>667000</t>
+          <t>659000</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>8000</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2962,48 +2962,48 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>-0.45</v>
+        <v>-1.2</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>165286</t>
+          <t>132109</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>110507</t>
+          <t>86516</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>110214</t>
+          <t>108892</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>2025-06-25 16:42:56</t>
+          <t>2025-06-26 14:26:59</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>009150</t>
+          <t>086280</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>삼성전기</t>
+          <t>현대글로비스</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>139100</t>
+          <t>138100</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2400</t>
+          <t>1600</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3012,48 +3012,48 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1.76</v>
+        <v>1.17</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>415635</t>
+          <t>142637</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>57484</t>
+          <t>19481</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>103899</t>
+          <t>103575</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>2025-06-25 16:42:56</t>
+          <t>2025-06-26 14:26:59</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>267250</t>
+          <t>009150</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>HD현대</t>
+          <t>삼성전기</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>129600</t>
+          <t>138000</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2300</t>
+          <t>1100</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3062,76 +3062,76 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>-1.74</v>
+        <v>-0.79</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>303935</t>
+          <t>508167</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>39614</t>
+          <t>71049</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>102375</t>
+          <t>103077</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>2025-06-25 16:42:56</t>
+          <t>2025-06-26 14:26:59</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>086280</t>
+          <t>267250</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>현대글로비스</t>
+          <t>HD현대</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>136500</t>
+          <t>126700</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>2900</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>상승</t>
+          <t>하락</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>0.07000000000000001</v>
+        <v>-2.24</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>249658</t>
+          <t>233546</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>34347</t>
+          <t>29443</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>102375</t>
+          <t>100084</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>2025-06-25 16:42:56</t>
+          <t>2025-06-26 14:26:59</t>
         </is>
       </c>
     </row>
@@ -3148,62 +3148,62 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>130000</t>
+          <t>128600</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>800</t>
+          <t>1400</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>상승</t>
+          <t>하락</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>0.62</v>
+        <v>-1.08</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>249585</t>
+          <t>161646</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>32253</t>
+          <t>20819</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>100702</t>
+          <t>99618</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>2025-06-25 16:42:56</t>
+          <t>2025-06-26 14:26:59</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>003230</t>
+          <t>042700</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>삼양식품</t>
+          <t>한미반도체</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>1299000</t>
+          <t>103300</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>5800</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3212,48 +3212,48 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>0.23</v>
+        <v>5.95</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>35706</t>
+          <t>4526299</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>46517</t>
+          <t>476723</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>97854</t>
+          <t>98458</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>2025-06-25 16:42:56</t>
+          <t>2025-06-26 14:26:59</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>042700</t>
+          <t>003230</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>한미반도체</t>
+          <t>삼양식품</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>97500</t>
+          <t>1300000</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>4700</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3262,26 +3262,26 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>5.06</v>
+        <v>0.08</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2227465</t>
+          <t>29493</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>217825</t>
+          <t>38017</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>92929</t>
+          <t>97929</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>2025-06-25 16:42:56</t>
+          <t>2025-06-26 14:26:59</t>
         </is>
       </c>
     </row>
@@ -3298,12 +3298,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>202000</t>
+          <t>200000</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>7500</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3312,26 +3312,26 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>-3.58</v>
+        <v>-0.99</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>164169</t>
+          <t>110933</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>33330</t>
+          <t>22007</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>90555</t>
+          <t>89658</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>2025-06-25 16:42:56</t>
+          <t>2025-06-26 14:26:59</t>
         </is>
       </c>
     </row>
@@ -3348,112 +3348,112 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>81100</t>
+          <t>79400</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>4800</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>상승</t>
+          <t>하락</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>6.29</v>
+        <v>-2.1</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>5753180</t>
+          <t>2387983</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>469630</t>
+          <t>183550</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>90310</t>
+          <t>88416</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>2025-06-25 16:42:56</t>
+          <t>2025-06-26 14:26:59</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>010120</t>
+          <t>003490</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>LS ELECTRIC</t>
+          <t>대한항공</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>295500</t>
+          <t>23950</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>15500</t>
+          <t>50</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>하락</t>
+          <t>상승</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>-4.98</v>
+        <v>0.21</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>318081</t>
+          <t>2516318</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>95522</t>
+          <t>60131</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>88650</t>
+          <t>88189</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>2025-06-25 16:42:56</t>
+          <t>2025-06-26 14:26:59</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>003490</t>
+          <t>005830</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>대한항공</t>
+          <t>DB손해보험</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>23900</t>
+          <t>124300</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>450</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3462,26 +3462,26 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>1.92</v>
+        <v>1.72</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>4765714</t>
+          <t>207438</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>113990</t>
+          <t>25439</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>88005</t>
+          <t>88004</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>2025-06-25 16:42:56</t>
+          <t>2025-06-26 14:26:59</t>
         </is>
       </c>
     </row>
@@ -3498,12 +3498,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>89900</t>
+          <t>89300</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>1200</t>
+          <t>600</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3512,26 +3512,26 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>-1.32</v>
+        <v>-0.67</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>724826</t>
+          <t>497331</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>65340</t>
+          <t>44713</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>87630</t>
+          <t>87045</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>2025-06-25 16:42:56</t>
+          <t>2025-06-26 14:26:59</t>
         </is>
       </c>
     </row>
@@ -3548,12 +3548,12 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>49250</t>
+          <t>48750</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>500</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3562,98 +3562,98 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>-0.1</v>
+        <v>-1.02</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>657587</t>
+          <t>324265</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>32820</t>
+          <t>15827</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>86642</t>
+          <t>85762</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>2025-06-25 16:42:56</t>
+          <t>2025-06-26 14:26:59</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>005830</t>
+          <t>010120</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>DB손해보험</t>
+          <t>LS ELECTRIC</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>122200</t>
+          <t>284500</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>11000</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>상승</t>
+          <t>하락</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>0.08</v>
+        <v>-3.72</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>262693</t>
+          <t>238613</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>32160</t>
+          <t>68174</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>86518</t>
+          <t>85350</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>2025-06-25 16:42:56</t>
+          <t>2025-06-26 14:26:59</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>180640</t>
+          <t>000100</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>한진칼</t>
+          <t>유한양행</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>123000</t>
+          <t>101600</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>400</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3662,48 +3662,48 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>-2.38</v>
+        <v>-0.39</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>90734</t>
+          <t>255683</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>11237</t>
+          <t>25965</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>82118</t>
+          <t>81248</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>2025-06-25 16:42:56</t>
+          <t>2025-06-26 14:26:59</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>000100</t>
+          <t>180640</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>유한양행</t>
+          <t>한진칼</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>102000</t>
+          <t>120700</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>700</t>
+          <t>2300</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3712,48 +3712,48 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>-0.68</v>
+        <v>-1.87</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>268455</t>
+          <t>52798</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>27467</t>
+          <t>6386</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>81568</t>
+          <t>80582</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>2025-06-25 16:42:56</t>
+          <t>2025-06-26 14:26:59</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>071050</t>
+          <t>298040</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>한국금융지주</t>
+          <t>효성중공업</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>146300</t>
+          <t>853000</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3762,148 +3762,148 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>-1.42</v>
+        <v>-0.35</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>335626</t>
+          <t>47169</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>48981</t>
+          <t>39924</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>81527</t>
+          <t>79538</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>2025-06-25 16:42:56</t>
+          <t>2025-06-26 14:26:59</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>090430</t>
+          <t>010620</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>아모레퍼시픽</t>
+          <t>HD현대미포</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>138800</t>
+          <t>197400</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>6900</t>
+          <t>8900</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>하락</t>
+          <t>상승</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>-4.74</v>
+        <v>4.72</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>786457</t>
+          <t>494408</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>109321</t>
+          <t>94740</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>81188</t>
+          <t>78846</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>2025-06-25 16:42:56</t>
+          <t>2025-06-26 14:26:59</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>298040</t>
+          <t>071050</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>효성중공업</t>
+          <t>한국금융지주</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>856000</t>
+          <t>141400</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>30000</t>
+          <t>4900</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>상승</t>
+          <t>하락</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>3.63</v>
+        <v>-3.35</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>85071</t>
+          <t>314107</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>71764</t>
+          <t>44128</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>79818</t>
+          <t>78797</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>2025-06-25 16:42:56</t>
+          <t>2025-06-26 14:26:59</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>010620</t>
+          <t>090430</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>HD현대미포</t>
+          <t>아모레퍼시픽</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>188500</t>
+          <t>132400</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>13000</t>
+          <t>6400</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3912,26 +3912,26 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>-6.45</v>
+        <v>-4.61</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>519081</t>
+          <t>349420</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>101775</t>
+          <t>46905</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>75291</t>
+          <t>77444</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>2025-06-25 16:42:56</t>
+          <t>2025-06-26 14:26:59</t>
         </is>
       </c>
     </row>
@@ -3948,12 +3948,12 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>92400</t>
+          <t>91300</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>1100</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3962,148 +3962,148 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>-0.54</v>
+        <v>-1.19</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>136378</t>
+          <t>93828</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>12601</t>
+          <t>8569</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>72361</t>
+          <t>71500</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>2025-06-25 16:42:56</t>
+          <t>2025-06-26 14:26:59</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>000880</t>
+          <t>021240</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>한화</t>
+          <t>코웨이</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>92200</t>
+          <t>96200</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>700</t>
+          <t>600</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>하락</t>
+          <t>상승</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>-0.75</v>
+        <v>0.63</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>623066</t>
+          <t>199366</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>57165</t>
+          <t>19175</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>69112</t>
+          <t>69177</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>2025-06-25 16:42:56</t>
+          <t>2025-06-26 14:26:59</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>016360</t>
+          <t>000880</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>삼성증권</t>
+          <t>한화</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>77200</t>
+          <t>90600</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>1400</t>
+          <t>1600</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>상승</t>
+          <t>하락</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>1.85</v>
+        <v>-1.74</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>707944</t>
+          <t>333536</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>54626</t>
+          <t>29970</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>68940</t>
+          <t>67913</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>2025-06-25 16:42:56</t>
+          <t>2025-06-26 14:26:59</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>021240</t>
+          <t>016360</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>코웨이</t>
+          <t>삼성증권</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>95600</t>
+          <t>75800</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>1700</t>
+          <t>1400</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -4112,26 +4112,26 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>-1.75</v>
+        <v>-1.81</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>169210</t>
+          <t>663966</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>16303</t>
+          <t>50008</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>68745</t>
+          <t>67689</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>2025-06-25 16:42:56</t>
+          <t>2025-06-26 14:26:59</t>
         </is>
       </c>
     </row>
@@ -4148,40 +4148,40 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>20700</t>
+          <t>20350</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>350</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>상승</t>
+          <t>하락</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>0.49</v>
+        <v>-1.69</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>1270734</t>
+          <t>976357</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>26132</t>
+          <t>19685</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>67086</t>
+          <t>65952</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>2025-06-25 16:42:56</t>
+          <t>2025-06-26 14:26:59</t>
         </is>
       </c>
     </row>
@@ -4198,40 +4198,40 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>57900</t>
+          <t>58300</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>700</t>
+          <t>400</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>하락</t>
+          <t>상승</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>-1.19</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>380584</t>
+          <t>160619</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>22091</t>
+          <t>9318</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>65185</t>
+          <t>65636</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>2025-06-25 16:42:56</t>
+          <t>2025-06-26 14:26:59</t>
         </is>
       </c>
     </row>
@@ -4248,12 +4248,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>13790</t>
+          <t>14230</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>440</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -4262,98 +4262,98 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.29</v>
+        <v>3.19</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>1476782</t>
+          <t>1315734</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>20222</t>
+          <t>18397</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>60209</t>
+          <t>62130</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>2025-06-25 16:42:56</t>
+          <t>2025-06-26 14:26:59</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>039490</t>
+          <t>006260</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>키움증권</t>
+          <t>LS</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>236500</t>
+          <t>184300</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2800</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>보합</t>
+          <t>상승</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>202772</t>
+          <t>149466</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>47745</t>
+          <t>27087</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>58704</t>
+          <t>59345</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>2025-06-25 16:42:56</t>
+          <t>2025-06-26 14:26:59</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>006260</t>
+          <t>039490</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>LS</t>
+          <t>키움증권</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>181500</t>
+          <t>236000</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>3300</t>
+          <t>500</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -4362,26 +4362,26 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>-1.79</v>
+        <v>-0.21</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>184050</t>
+          <t>215287</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>33418</t>
+          <t>49512</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>58443</t>
+          <t>58580</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>2025-06-25 16:42:56</t>
+          <t>2025-06-26 14:26:59</t>
         </is>
       </c>
     </row>
@@ -4398,12 +4398,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>60900</t>
+          <t>59900</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>900</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -4412,126 +4412,126 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>-1.46</v>
+        <v>-1.64</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>1570827</t>
+          <t>535469</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>97420</t>
+          <t>31981</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>58376</t>
+          <t>57418</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>2025-06-25 16:42:56</t>
+          <t>2025-06-26 14:26:59</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>278470</t>
+          <t>029780</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>에이피알</t>
+          <t>삼성카드</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>151600</t>
+          <t>49100</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>10400</t>
+          <t>250</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>상승</t>
+          <t>하락</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>7.37</v>
+        <v>-0.51</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>600305</t>
+          <t>51357</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>88407</t>
+          <t>2516</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>57675</t>
+          <t>56887</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>2025-06-25 16:42:56</t>
+          <t>2025-06-26 14:26:59</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>029780</t>
+          <t>278470</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>삼성카드</t>
+          <t>에이피알</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>49350</t>
+          <t>148400</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>3200</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>상승</t>
+          <t>하락</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>0.3</v>
+        <v>-2.11</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>82725</t>
+          <t>304538</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>4077</t>
+          <t>45066</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>57176</t>
+          <t>56457</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>2025-06-25 16:42:56</t>
+          <t>2025-06-26 14:26:59</t>
         </is>
       </c>
     </row>
@@ -4548,40 +4548,40 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>32600</t>
+          <t>32200</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>400</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>상승</t>
+          <t>하락</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.93</v>
+        <v>-1.23</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>4148235</t>
+          <t>1349415</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>139181</t>
+          <t>43274</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>56037</t>
+          <t>55349</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>2025-06-25 16:42:56</t>
+          <t>2025-06-26 14:26:59</t>
         </is>
       </c>
     </row>
@@ -4598,12 +4598,12 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>341500</t>
+          <t>334000</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>8000</t>
+          <t>7500</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -4612,26 +4612,26 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>-2.29</v>
+        <v>-2.2</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>59859</t>
+          <t>34112</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>20539</t>
+          <t>11426</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>53336</t>
+          <t>52165</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>2025-06-25 16:42:56</t>
+          <t>2025-06-26 14:26:59</t>
         </is>
       </c>
     </row>
@@ -4648,7 +4648,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>60500</t>
+          <t>59900</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -4662,26 +4662,26 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>-0.98</v>
+        <v>-0.99</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>184415</t>
+          <t>132244</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>11107</t>
+          <t>7836</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>52002</t>
+          <t>51486</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>2025-06-25 16:42:56</t>
+          <t>2025-06-26 14:26:59</t>
         </is>
       </c>
     </row>
@@ -4698,112 +4698,112 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>40250</t>
+          <t>40200</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>850</t>
+          <t>50</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>상승</t>
+          <t>하락</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>2.16</v>
+        <v>-0.12</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>517379</t>
+          <t>474692</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>20870</t>
+          <t>19202</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>49860</t>
+          <t>49798</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>2025-06-25 16:42:56</t>
+          <t>2025-06-26 14:26:59</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>001040</t>
+          <t>034220</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>CJ</t>
+          <t>LG디스플레이</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>160600</t>
+          <t>9300</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>40</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>상승</t>
+          <t>하락</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.06</v>
+        <v>-0.43</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>173935</t>
+          <t>541691</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>27794</t>
+          <t>5031</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>46858</t>
+          <t>46500</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>2025-06-25 16:42:56</t>
+          <t>2025-06-26 14:26:59</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>034220</t>
+          <t>001040</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>LG디스플레이</t>
+          <t>CJ</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>9340</t>
+          <t>157900</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>2700</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -4812,26 +4812,26 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>-0.95</v>
+        <v>-1.68</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>1186944</t>
+          <t>183198</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>11079</t>
+          <t>28338</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>46700</t>
+          <t>46070</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>2025-06-25 16:42:56</t>
+          <t>2025-06-26 14:26:59</t>
         </is>
       </c>
     </row>
@@ -4848,12 +4848,12 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>23000</t>
+          <t>22650</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>350</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -4862,148 +4862,148 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>-1.08</v>
+        <v>-1.52</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>869069</t>
+          <t>545840</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>20029</t>
+          <t>12324</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>45080</t>
+          <t>44394</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>2025-06-25 16:42:56</t>
+          <t>2025-06-26 14:26:59</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>052690</t>
+          <t>011790</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>한전기술</t>
+          <t>SKC</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>114900</t>
+          <t>115900</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>5700</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>하락</t>
+          <t>상승</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>-0.09</v>
+        <v>5.17</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>991029</t>
+          <t>794454</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>113961</t>
+          <t>90662</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>43915</t>
+          <t>43889</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>2025-06-25 16:42:56</t>
+          <t>2025-06-26 14:26:59</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>454910</t>
+          <t>078930</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>두산로보틱스</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>67600</t>
+          <t>45900</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>1600</t>
+          <t>850</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>상승</t>
+          <t>하락</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>2.42</v>
+        <v>-1.82</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>1617684</t>
+          <t>221053</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>108949</t>
+          <t>10135</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>43818</t>
+          <t>42648</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>2025-06-25 16:42:56</t>
+          <t>2025-06-26 14:26:59</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>078930</t>
+          <t>271560</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>오리온</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>46750</t>
+          <t>107500</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>1100</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -5012,126 +5012,126 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>-0.21</v>
+        <v>-1.01</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>332903</t>
+          <t>132667</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>15548</t>
+          <t>14242</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>43438</t>
+          <t>42501</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>2025-06-25 16:42:56</t>
+          <t>2025-06-26 14:26:59</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>271560</t>
+          <t>052690</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>오리온</t>
+          <t>한전기술</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>108600</t>
+          <t>111000</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>1200</t>
+          <t>3900</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>상승</t>
+          <t>하락</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>1.12</v>
+        <v>-3.39</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>156656</t>
+          <t>972396</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>16949</t>
+          <t>105908</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>42936</t>
+          <t>42424</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>2025-06-25 16:42:56</t>
+          <t>2025-06-26 14:26:59</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>011790</t>
+          <t>004020</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>SKC</t>
+          <t>현대제철</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>110200</t>
+          <t>30850</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>1900</t>
+          <t>100</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>상승</t>
+          <t>하락</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>1.75</v>
+        <v>-0.32</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>526977</t>
+          <t>412625</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>58317</t>
+          <t>12620</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>41731</t>
+          <t>41168</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>2025-06-25 16:42:56</t>
+          <t>2025-06-26 14:26:59</t>
         </is>
       </c>
     </row>
@@ -5148,12 +5148,12 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>192800</t>
+          <t>187300</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>1300</t>
+          <t>5500</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -5162,76 +5162,76 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>-0.67</v>
+        <v>-2.85</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>90442</t>
+          <t>74919</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>17413</t>
+          <t>14065</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>41537</t>
+          <t>40352</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>2025-06-25 16:42:56</t>
+          <t>2025-06-26 14:26:59</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>004020</t>
+          <t>454910</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>현대제철</t>
+          <t>두산로보틱스</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>30950</t>
+          <t>62300</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>1400</t>
+          <t>5300</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>상승</t>
+          <t>하락</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>4.74</v>
+        <v>-7.84</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>1169819</t>
+          <t>676752</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>36414</t>
+          <t>42523</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>41301</t>
+          <t>40383</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>2025-06-25 16:42:56</t>
+          <t>2025-06-26 14:26:59</t>
         </is>
       </c>
     </row>
@@ -5248,12 +5248,12 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>21100</t>
+          <t>20650</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>450</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -5262,126 +5262,126 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>-1.17</v>
+        <v>-2.13</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>645214</t>
+          <t>517322</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>13701</t>
+          <t>10697</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>40915</t>
+          <t>40042</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>2025-06-25 16:42:56</t>
+          <t>2025-06-26 14:26:59</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>138930</t>
+          <t>035250</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>BNK금융지주</t>
+          <t>강원랜드</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>12710</t>
+          <t>18460</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>450</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>상승</t>
+          <t>하락</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>4.61</v>
+        <v>-2.38</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>1855768</t>
+          <t>707178</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>23342</t>
+          <t>13106</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>40467</t>
+          <t>39493</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>2025-06-25 16:42:56</t>
+          <t>2025-06-26 14:26:59</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>035250</t>
+          <t>138930</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>강원랜드</t>
+          <t>BNK금융지주</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>18910</t>
+          <t>12400</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>650</t>
+          <t>310</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>상승</t>
+          <t>하락</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>3.56</v>
+        <v>-2.44</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>1160061</t>
+          <t>752480</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>21713</t>
+          <t>9350</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>40456</t>
+          <t>39480</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>2025-06-25 16:42:56</t>
+          <t>2025-06-26 14:26:59</t>
         </is>
       </c>
     </row>
@@ -5398,12 +5398,12 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>49800</t>
+          <t>48950</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>900</t>
+          <t>850</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>-1.78</v>
+        <v>-1.71</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>159580</t>
+          <t>113499</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>8026</t>
+          <t>5582</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>39028</t>
+          <t>38362</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>2025-06-25 16:42:56</t>
+          <t>2025-06-26 14:26:59</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>036460</t>
+          <t>097950</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>한국가스공사</t>
+          <t>CJ제일제당</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>41900</t>
+          <t>255000</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>2450</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>상승</t>
+          <t>보합</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>6.21</v>
+        <v>0</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>4194947</t>
+          <t>87941</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>180844</t>
+          <t>22542</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>38679</t>
+          <t>38388</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>2025-06-25 16:42:56</t>
+          <t>2025-06-26 14:26:59</t>
         </is>
       </c>
     </row>
